--- a/数据整理/stocks/A股/深证主板/000848-承德露露.xlsx
+++ b/数据整理/stocks/A股/深证主板/000848-承德露露.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.69</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.61</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008929</t>
+          <t>512590</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
+          <t>浦银安盛中证高股息精选ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512590</t>
+          <t>008929</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>浦银安盛中证高股息精选ETF</t>
+          <t>泰达宏利中证主要消费红利指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,25 +672,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501089</t>
+          <t>008928</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+          <t>泰达宏利中证主要消费红利指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008928</t>
+          <t>008929</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
+          <t>泰达宏利中证主要消费红利指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.92</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.52</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -678,25 +748,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008929</t>
+          <t>501089</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000848-承德露露.xlsx
+++ b/数据整理/stocks/A股/深证主板/000848-承德露露.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4945</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006255</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006256</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000848-承德露露.xlsx
+++ b/数据整理/stocks/A股/深证主板/000848-承德露露.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1410,4 +1411,1048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6876</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>288001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏经典配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009958</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3098</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2866</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008928</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009959</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长安鑫悦消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>51.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512590</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛中证高股息精选ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006255</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>51.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006256</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000848-承德露露.xlsx
+++ b/数据整理/stocks/A股/深证主板/000848-承德露露.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2455,4 +2456,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000848-承德露露.xlsx
+++ b/数据整理/stocks/A股/深证主板/000848-承德露露.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2464,7 +2465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2475,17 +2476,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2495,14 +2516,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.06</v>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2511,14 +2554,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.32</v>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4489</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2527,14 +2592,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2543,13 +2630,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000848-承德露露.xlsx
+++ b/数据整理/stocks/A股/深证主板/000848-承德露露.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2749,7 +2750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2760,17 +2761,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2780,14 +2801,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.31</v>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2796,14 +2839,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.06</v>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2812,14 +2877,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.32</v>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2828,14 +2915,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08</v>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2844,13 +2953,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000848-承德露露.xlsx
+++ b/数据整理/stocks/A股/深证主板/000848-承德露露.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3110,7 +3111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3121,17 +3122,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3141,14 +3162,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3157,14 +3200,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.31</v>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3173,14 +3238,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.06</v>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3189,14 +3276,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.32</v>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3205,14 +3314,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>46.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="7">
@@ -3221,13 +3468,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.11</v>
       </c>
     </row>
